--- a/docs/artefatos-15-23/ATENDIMENTO/Analise_de_Eventos_ATENDIMENTO.xlsx
+++ b/docs/artefatos-15-23/ATENDIMENTO/Analise_de_Eventos_ATENDIMENTO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t xml:space="preserve">Externo</t>
   </si>
@@ -60,13 +60,16 @@
     <t xml:space="preserve">Recebimento de pedidos</t>
   </si>
   <si>
+    <t xml:space="preserve">O cliente solicita o cardápio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
     <t xml:space="preserve">FB</t>
   </si>
   <si>
     <t xml:space="preserve">O cliente realiza o pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">FA</t>
@@ -115,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -146,12 +149,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -197,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -240,6 +237,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -266,7 +270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -295,15 +299,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -311,26 +331,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -343,7 +347,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -352,6 +356,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,17 +440,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="70"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.01"/>
@@ -497,140 +505,158 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7"/>
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7"/>
+      <c r="B5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
+      <c r="C5" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
+      <c r="G6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="B8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20"/>
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>

--- a/docs/artefatos-15-23/ATENDIMENTO/Analise_de_Eventos_ATENDIMENTO.xlsx
+++ b/docs/artefatos-15-23/ATENDIMENTO/Analise_de_Eventos_ATENDIMENTO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t xml:space="preserve">Externo</t>
   </si>
@@ -60,27 +60,30 @@
     <t xml:space="preserve">Recebimento de pedidos</t>
   </si>
   <si>
+    <t xml:space="preserve">FB</t>
+  </si>
+  <si>
     <t xml:space="preserve">O cliente solicita o cardápio</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
   </si>
   <si>
-    <t xml:space="preserve">FB</t>
-  </si>
-  <si>
     <t xml:space="preserve">O cliente realiza o pedido</t>
   </si>
   <si>
+    <t xml:space="preserve">O garçom solicita o preparo do pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X(2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">FA</t>
   </si>
   <si>
     <t xml:space="preserve">O Atendente informa da indisponibilidade do pedido</t>
   </si>
   <si>
-    <t xml:space="preserve">X(1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entrega de pedidos</t>
   </si>
   <si>
@@ -93,7 +96,7 @@
     <t xml:space="preserve">O cliente não aceita o pedido</t>
   </si>
   <si>
-    <t xml:space="preserve">X(3)</t>
+    <t xml:space="preserve">X(5)</t>
   </si>
   <si>
     <t xml:space="preserve">Pagamento de pedidos</t>
@@ -102,13 +105,16 @@
     <t xml:space="preserve">O cliente solicita o fechamento do pedido</t>
   </si>
   <si>
-    <t xml:space="preserve">x(3)</t>
+    <t xml:space="preserve">O caixa devolve o pedido calculado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X(7)</t>
   </si>
   <si>
     <t xml:space="preserve">O cliente não realiza o pagamento</t>
   </si>
   <si>
-    <t xml:space="preserve">X(5)</t>
+    <t xml:space="preserve">X(9)</t>
   </si>
 </sst>
 </file>
@@ -303,6 +309,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -320,10 +330,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -440,10 +446,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -460,7 +466,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -509,154 +515,192 @@
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="8" t="n">
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
-      <c r="B4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8" t="n">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7"/>
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="C6" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
+      <c r="G7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20"/>
-      <c r="B9" s="13" t="s">
-        <v>16</v>
+      <c r="B9" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20"/>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="22" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>

--- a/docs/artefatos-15-23/ATENDIMENTO/Analise_de_Eventos_ATENDIMENTO.xlsx
+++ b/docs/artefatos-15-23/ATENDIMENTO/Analise_de_Eventos_ATENDIMENTO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t xml:space="preserve">Externo</t>
   </si>
@@ -72,6 +72,9 @@
     <t xml:space="preserve">O cliente realiza o pedido</t>
   </si>
   <si>
+    <t xml:space="preserve">X(1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">O garçom solicita o preparo do pedido</t>
   </si>
   <si>
@@ -90,7 +93,7 @@
     <t xml:space="preserve">A cozinha informa que o pedido está pronto</t>
   </si>
   <si>
-    <t xml:space="preserve">x(1)</t>
+    <t xml:space="preserve">X(3)</t>
   </si>
   <si>
     <t xml:space="preserve">O cliente não aceita o pedido</t>
@@ -114,7 +117,7 @@
     <t xml:space="preserve">O cliente não realiza o pagamento</t>
   </si>
   <si>
-    <t xml:space="preserve">X(9)</t>
+    <t xml:space="preserve">X(8)</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -542,10 +545,10 @@
       <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="E4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="11"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -558,13 +561,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
@@ -572,26 +575,26 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="9" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>12</v>
@@ -600,13 +603,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="G7" s="19"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
@@ -614,26 +617,26 @@
     <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="17"/>
       <c r="B8" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9" t="n">
         <v>6</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>12</v>
@@ -642,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="12"/>
@@ -660,13 +663,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
@@ -674,20 +677,20 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20"/>
       <c r="B11" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="22" t="n">
         <v>9</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J11" s="13"/>
     </row>
